--- a/excel_with_subclasses/without_zeros/time_zone_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/time_zone_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q17272692</t>
@@ -434,9 +434,6 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>396</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -448,9 +445,6 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>74</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -461,9 +455,6 @@
       </c>
       <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
